--- a/数据整理/stocks/A股/上证主板/605080-浙江自然.xlsx
+++ b/数据整理/stocks/A股/上证主板/605080-浙江自然.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1505,4 +1506,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/605080-浙江自然.xlsx
+++ b/数据整理/stocks/A股/上证主板/605080-浙江自然.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1514,7 +1515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1525,17 +1526,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1545,14 +1566,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.49</v>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5869</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1561,13 +1604,575 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5984</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4904</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4404</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2394</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2389</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.13</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605080-浙江自然.xlsx
+++ b/数据整理/stocks/A股/上证主板/605080-浙江自然.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2103,7 +2104,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2114,17 +2115,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2134,14 +2155,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.08</v>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4844</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2150,14 +2193,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.49</v>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4224</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2166,13 +2231,477 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3986</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3584</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1993</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1706</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.13</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605080-浙江自然.xlsx
+++ b/数据整理/stocks/A股/上证主板/605080-浙江自然.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2616,7 +2617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2627,17 +2628,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2647,14 +2668,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.35</v>
+          <t>870009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7843</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2663,14 +2706,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.08</v>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3834</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2679,14 +2744,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.49</v>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3141</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2695,13 +2782,531 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2938</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2737</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1918</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>872019</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.13</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605080-浙江自然.xlsx
+++ b/数据整理/stocks/A股/上证主板/605080-浙江自然.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>2.59</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>2.35</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>5.08</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>4.49</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.13</v>
       </c>
     </row>
@@ -566,6 +583,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>870009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5154</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>872019</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1153,7 +1340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1665,7 +1852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2253,7 +2440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2993,7 +3180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/605080-浙江自然.xlsx
+++ b/数据整理/stocks/A股/上证主板/605080-浙江自然.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>2.59</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>2.35</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>5.08</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>4.49</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.13</v>
       </c>
     </row>
@@ -583,6 +600,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3218</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -752,7 +901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1340,7 +1489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1852,7 +2001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2440,7 +2589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3180,7 +3329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
